--- a/biology/Botanique/Phytotaxa/Phytotaxa.xlsx
+++ b/biology/Botanique/Phytotaxa/Phytotaxa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Phytotaxa est une revue scientifique évaluée par les pairs, publiée par Magnolia Press et basée à Aukland en Nouvelle-Zélande. Spécialisée dans la taxinomie des plantes et la systématique en botanique, elle couvre tous les champs associés à la discipline selon le code international de nomenclature pour les algues, les champignons et les plantes, tant pour les espèces vivantes que fossiles.
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Phytotaxa a été créée en octobre 2009, sur le modèle de la revue-mère Zootaxa (fondée en 2001), par le botaniste nééerlandais Maarten Joost Maria Christenhusz. L'éditrice en chef est Zhi-Qiang Zhang.
-Selon le Journal Citation Reports, Phytotaxa a un facteur d'impact en de 1,171 en 2020[2], ce qui la classe dans le troisième quart (Q3) des revues de sa spécialité.
+Selon le Journal Citation Reports, Phytotaxa a un facteur d'impact en de 1,171 en 2020, ce qui la classe dans le troisième quart (Q3) des revues de sa spécialité.
 </t>
         </is>
       </c>
